--- a/.hz_spec/.hz_spec.xlsx
+++ b/.hz_spec/.hz_spec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\hzfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\hzfile\.hz_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906AA51C-0752-4244-B17C-E868333E0647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6CC71-3791-4387-A302-83238A98A28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A70A5D46-F584-47DC-887D-84417E3FD838}"/>
   </bookViews>
@@ -32,15 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
-  <si>
-    <t>文件格式标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留空白字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>unsigned char</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件名长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unsigned int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,59 +62,236 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依次为：B, H, I, Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B * 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B * 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H * 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解析方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;文件名长度&gt;的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被合并的文件信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被合并的文件数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被合并的文件总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被合并的文件数据字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被合并的单个文件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名字节串(包含'\0')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <t>unsigned char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I * 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式规范</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储存的数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储存单元的类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储存单元的数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总占用字节数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件头部信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被合并的文件信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被合并的文件数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0, 0, 0, 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件格式标识</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型空间占用表（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四个类型的空间占用大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(B, H, I, Q)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>格式版本信息（</t>
     </r>
     <r>
@@ -137,95 +302,633 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总占用字节数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本：0, 0, 0, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hz文件二进制格式规范</t>
-  </si>
-  <si>
-    <r>
-      <t>类型长度表（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成二进制文件时该编译Python的C实现的4个类型的长度(字节数)，四个类型分别为B, H, I, Q。
-B对应C中的unsigned char，H对应unsigned short，I对应unsigned int，Q对应unsigned long long。
-读取.hz文件时，除unsigned char类型按1字节解析外，其他类型按类型长度表中的长度解析。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成hz文件时所用的hz格式规范版本，目前没什么用，主要是为了不同版本规范的兼容性考虑。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预留空白字节</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被合并的文件总数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被合并的单个文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件大小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名长度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名字节串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'\0')</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被合并的文件字节码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四个数据类型各自的空间占用大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，四个类型分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B, H, I, Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;unsigned char&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;unsigned short&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;unsigned int&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;unsigned long long&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。因为在不同环境下生成二进制文件时，除了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型占用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CPython)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以外，其他类型的占用空间大小不一定都是一样的，所以读取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.hz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件时，除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;unsigned char&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节解析外，其他类型按类型空间占用表中的字节数解析。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;.hz&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件时所用的格式规范版本，目前没什么用，主要是考虑到兼容不同版本时可能会用上。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,20 +953,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -272,24 +1008,26 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,7 +1035,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -434,125 +1178,146 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,265 +1637,271 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="16" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="16"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>24</v>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22">
+      <c r="F5" s="14">
         <v>16</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>12</v>
+      <c r="G5" s="14">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="17">
         <v>4</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>13</v>
+      <c r="G6" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="11"/>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
+      <c r="G7" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="B8" s="11"/>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="B9" s="11"/>
+      <c r="C9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>11</v>
+      <c r="G9" s="27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
+      <c r="G10" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>11</v>
+      <c r="G11" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="31">
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>16</v>
+      <c r="G12" s="32" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="B20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B3:G3"/>
@@ -1140,7 +1911,6 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
